--- a/testFile/freeze-unfreeze-reset_pass.xlsx
+++ b/testFile/freeze-unfreeze-reset_pass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\程嘉朗\IdeaProjects\CS309-OOAD-ProjectHelper\testFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/271cdb3d13ab853e/Code/Java/CS309/CS309-OOAD-ProjectHelper/testFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BDC12-CF15-487B-8801-1D54B650D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BD8BDC12-CF15-487B-8801-1D54B650D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E5C7C0-DD2F-417D-9680-726206720371}"/>
   <bookViews>
-    <workbookView xWindow="4433" yWindow="2618" windowWidth="17280" windowHeight="9982" xr2:uid="{8EC85FD2-953F-430E-AA19-50097B17399B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{8EC85FD2-953F-430E-AA19-50097B17399B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,14 +98,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,15 +420,16 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,86 +437,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12110030</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12110031</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>12110032</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>12110033</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>12110034</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12110035</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>12110036</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12110037</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12110038</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>12110039</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>12110001</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
